--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
   <si>
     <r>
       <rPr>
@@ -166,6 +166,60 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeSecureTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeSecureTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="登 录"]</t>
+  </si>
+  <si>
+    <t>安利</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeApplication[@name="安利数码港QA”]//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeApplication[@name="安利数码港QA”]//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>安利云购</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[0]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[1]</t>
   </si>
 </sst>
 </file>
@@ -419,9 +473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>177430</xdr:colOff>
+      <xdr:colOff>174772</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>126578</xdr:rowOff>
+      <xdr:rowOff>75790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,8 +498,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -455,15 +511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>622004</xdr:colOff>
+      <xdr:colOff>619346</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>431283</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>101575</xdr:rowOff>
+      <xdr:rowOff>50787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -486,8 +542,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -497,15 +555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647257</xdr:colOff>
+      <xdr:colOff>644598</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126578</xdr:rowOff>
+      <xdr:rowOff>75790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>253852</xdr:colOff>
+      <xdr:colOff>251194</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>37504</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -528,8 +586,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -552,7 +612,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>37504</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,8 +635,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -588,13 +650,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>25003</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>596752</xdr:colOff>
+      <xdr:colOff>594094</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>88292</xdr:rowOff>
+      <xdr:rowOff>37504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -617,8 +679,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -636,7 +700,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>152362</xdr:rowOff>
+      <xdr:rowOff>101575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -659,8 +723,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -678,7 +744,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>37504</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -701,8 +767,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -714,13 +782,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37504</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>634630</xdr:colOff>
+      <xdr:colOff>631972</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:rowOff>25003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -743,8 +811,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -754,15 +824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>679819</xdr:colOff>
+      <xdr:colOff>677161</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>622004</xdr:colOff>
+      <xdr:colOff>619346</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>37504</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -785,8 +855,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -1079,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A6"/>
@@ -1432,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" defaultColWidth="9"/>
@@ -1470,13 +1542,13 @@
     </row>
     <row r="3" spans="8:8" ht="16.2">
       <c r="A3" s="12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -1488,19 +1560,19 @@
         <v>34</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:8" ht="16.2">
       <c r="A5" s="14"/>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1508,28 +1580,22 @@
     </row>
     <row r="6" spans="8:8">
       <c r="A6" s="15"/>
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="8:8" ht="16.2">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="8:8">
@@ -1568,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A18">
       <selection activeCell="B12" sqref="B12"/>
@@ -1618,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A56">
       <selection activeCell="F60" sqref="F60"/>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -1,9 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" activeTab="1" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -14,27 +20,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!$B$3:$B$4</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <r>
       <rPr>
-        <charset val="134"/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
     </r>
     <r>
       <rPr>
-        <charset val="134"/>
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -60,33 +67,24 @@
     <t>通用控件</t>
   </si>
   <si>
-    <t>用户名</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <r>
       <rPr>
-        <charset val="134"/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
     </r>
     <r>
       <rPr>
-        <charset val="134"/>
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -96,36 +94,15 @@
     </r>
   </si>
   <si>
-    <t>//input[@placeholder='User name']</t>
-  </si>
-  <si>
     <t>Xpath</t>
   </si>
   <si>
-    <t>//input[@placeholder='Password']</t>
-  </si>
-  <si>
-    <t>按钮</t>
-  </si>
-  <si>
-    <t>//button[@class='button button-block button-calm ng-binding']</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>//i[@class='icon ion-person']</t>
-  </si>
-  <si>
     <t>页面名称</t>
   </si>
   <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
     <t>com.ibm.cio.be.ppm:id/et_intranetId</t>
   </si>
   <si>
@@ -156,115 +133,124 @@
     <t>kingsan</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeSecureTextField</t>
+  </si>
+  <si>
     <t>//XCUIElementTypeTextField</t>
   </si>
   <si>
-    <t>//XCUIElementTypeSecureTextField</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeTextField</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeSecureTextField</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeTextField</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeSecureTextField</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeButton[@name="登 录"]</t>
-  </si>
-  <si>
-    <t>安利</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeApplication[@name="安利数码港QA”]//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeApplication[@name="安利数码港QA”]//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]</t>
+    <t>登   录</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton</t>
   </si>
   <si>
     <t>Xpath</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
     <t>安利云购</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeButton[0]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeButton[1]</t>
+    <t>我知道了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]//XCUIElementTypeImage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="@"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="横幅"]/XCUIElementTypeTextField</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICHJAY咖啡饮品券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICH &amp; JAY咖啡饮品券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="134"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="134"/>
       <sz val="12"/>
       <color rgb="FF0C0C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
       <b/>
-      <charset val="134"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="宋体"/>
       <b/>
-      <charset val="134"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -396,15 +382,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -415,18 +417,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -436,9 +429,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,13 +446,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -473,9 +472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>174772</xdr:colOff>
+      <xdr:colOff>176101</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:rowOff>101575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -511,15 +510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619346</xdr:colOff>
+      <xdr:colOff>620675</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>429954</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>50787</xdr:rowOff>
+      <xdr:rowOff>75790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,15 +554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>644598</xdr:colOff>
+      <xdr:colOff>645927</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
+      <xdr:rowOff>101575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>251194</xdr:colOff>
+      <xdr:colOff>252523</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -599,7 +598,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -612,7 +611,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -654,9 +653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>594094</xdr:colOff>
+      <xdr:colOff>595423</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>37504</xdr:rowOff>
+      <xdr:rowOff>63289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -700,7 +699,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>101575</xdr:rowOff>
+      <xdr:rowOff>126578</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -744,7 +743,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -782,13 +781,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>631972</xdr:colOff>
+      <xdr:colOff>633301</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>25003</xdr:rowOff>
+      <xdr:rowOff>50787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,15 +823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>677161</xdr:colOff>
+      <xdr:colOff>678490</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>619346</xdr:colOff>
+      <xdr:colOff>620675</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,9 +868,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -879,109 +878,109 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -990,506 +989,234 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="10.875" style="1"/>
-    <col min="2" max="2" customWidth="1" width="14.5" style="1"/>
-    <col min="3" max="3" customWidth="1" width="54.625" style="1"/>
-    <col min="4" max="4" customWidth="1" width="28.125" style="1"/>
-    <col min="5" max="5" customWidth="1" width="10.875" style="2"/>
-    <col min="6" max="6" customWidth="1" width="10.875" style="2"/>
-    <col min="7" max="7" customWidth="1" width="10.875" style="2"/>
-    <col min="8" max="8" customWidth="1" width="10.875" style="2"/>
-    <col min="9" max="9" customWidth="1" width="10.875" style="2"/>
-    <col min="10" max="10" customWidth="1" width="10.875" style="2"/>
-    <col min="11" max="11" customWidth="1" width="10.875" style="2"/>
-    <col min="12" max="12" customWidth="1" width="10.875" style="2"/>
-    <col min="13" max="13" customWidth="1" width="10.875" style="2"/>
-    <col min="14" max="14" customWidth="1" width="10.875" style="2"/>
-    <col min="15" max="15" customWidth="1" width="10.875" style="2"/>
-    <col min="16" max="16" customWidth="1" width="10.875" style="2"/>
-    <col min="17" max="17" customWidth="1" width="10.875" style="2"/>
-    <col min="18" max="18" customWidth="1" width="10.875" style="2"/>
-    <col min="19" max="19" customWidth="1" width="10.875" style="2"/>
-    <col min="20" max="20" customWidth="1" width="10.875" style="2"/>
-    <col min="21" max="21" customWidth="1" width="10.875" style="2"/>
-    <col min="22" max="22" customWidth="1" width="10.875" style="2"/>
-    <col min="23" max="23" customWidth="1" width="10.875" style="2"/>
-    <col min="24" max="24" customWidth="1" width="10.875" style="2"/>
-    <col min="25" max="25" customWidth="1" width="10.875" style="2"/>
-    <col min="26" max="26" customWidth="1" width="10.875" style="2"/>
-    <col min="27" max="27" customWidth="1" width="10.875" style="2"/>
-    <col min="28" max="28" customWidth="1" width="10.875" style="2"/>
-    <col min="29" max="29" customWidth="1" width="10.875" style="2"/>
-    <col min="30" max="30" customWidth="1" width="10.875" style="2"/>
-    <col min="31" max="31" customWidth="1" width="10.875" style="2"/>
-    <col min="32" max="32" customWidth="1" width="10.875" style="2"/>
-    <col min="33" max="33" customWidth="1" width="10.875" style="2"/>
-    <col min="34" max="34" customWidth="1" width="10.875" style="2"/>
-    <col min="35" max="35" customWidth="1" width="10.875" style="2"/>
-    <col min="36" max="36" customWidth="1" width="10.875" style="2"/>
-    <col min="37" max="37" customWidth="1" width="10.875" style="2"/>
-    <col min="38" max="38" customWidth="1" width="10.875" style="2"/>
-    <col min="39" max="39" customWidth="1" width="10.875" style="2"/>
-    <col min="40" max="40" customWidth="1" width="10.875" style="2"/>
-    <col min="41" max="41" customWidth="1" width="10.875" style="2"/>
-    <col min="42" max="42" customWidth="1" width="10.875" style="2"/>
-    <col min="43" max="43" customWidth="1" width="10.875" style="2"/>
-    <col min="44" max="44" customWidth="1" width="10.875" style="2"/>
-    <col min="45" max="45" customWidth="1" width="10.875" style="2"/>
-    <col min="46" max="46" customWidth="1" width="10.875" style="2"/>
-    <col min="47" max="47" customWidth="1" width="10.875" style="2"/>
-    <col min="48" max="48" customWidth="1" width="10.875" style="2"/>
-    <col min="49" max="49" customWidth="1" width="10.875" style="2"/>
-    <col min="50" max="50" customWidth="1" width="10.875" style="2"/>
-    <col min="51" max="51" customWidth="1" width="10.875" style="2"/>
-    <col min="52" max="52" customWidth="1" width="10.875" style="2"/>
-    <col min="53" max="53" customWidth="1" width="10.875" style="2"/>
-    <col min="54" max="54" customWidth="1" width="10.875" style="2"/>
-    <col min="55" max="55" customWidth="1" width="10.875" style="2"/>
-    <col min="56" max="56" customWidth="1" width="10.875" style="2"/>
-    <col min="57" max="57" customWidth="1" width="10.875" style="2"/>
-    <col min="58" max="58" customWidth="1" width="10.875" style="2"/>
-    <col min="59" max="59" customWidth="1" width="10.875" style="2"/>
-    <col min="60" max="60" customWidth="1" width="10.875" style="2"/>
-    <col min="61" max="61" customWidth="1" width="10.875" style="2"/>
-    <col min="62" max="62" customWidth="1" width="10.875" style="2"/>
-    <col min="63" max="63" customWidth="1" width="10.875" style="2"/>
-    <col min="64" max="64" customWidth="1" width="10.875" style="2"/>
-    <col min="65" max="65" customWidth="1" width="10.875" style="2"/>
-    <col min="66" max="66" customWidth="1" width="10.875" style="2"/>
-    <col min="67" max="67" customWidth="1" width="10.875" style="2"/>
-    <col min="68" max="68" customWidth="1" width="10.875" style="2"/>
-    <col min="69" max="69" customWidth="1" width="10.875" style="2"/>
-    <col min="70" max="70" customWidth="1" width="10.875" style="2"/>
-    <col min="71" max="71" customWidth="1" width="10.875" style="2"/>
-    <col min="72" max="72" customWidth="1" width="10.875" style="2"/>
-    <col min="73" max="73" customWidth="1" width="10.875" style="2"/>
-    <col min="74" max="74" customWidth="1" width="10.875" style="2"/>
-    <col min="75" max="75" customWidth="1" width="10.875" style="2"/>
-    <col min="76" max="76" customWidth="1" width="10.875" style="2"/>
-    <col min="77" max="77" customWidth="1" width="10.875" style="2"/>
-    <col min="78" max="78" customWidth="1" width="10.875" style="2"/>
-    <col min="79" max="79" customWidth="1" width="10.875" style="2"/>
-    <col min="80" max="80" customWidth="1" width="10.875" style="2"/>
-    <col min="81" max="81" customWidth="1" width="10.875" style="2"/>
-    <col min="82" max="82" customWidth="1" width="10.875" style="2"/>
-    <col min="83" max="83" customWidth="1" width="10.875" style="2"/>
-    <col min="84" max="84" customWidth="1" width="10.875" style="2"/>
-    <col min="85" max="85" customWidth="1" width="10.875" style="2"/>
-    <col min="86" max="86" customWidth="1" width="10.875" style="2"/>
-    <col min="87" max="87" customWidth="1" width="10.875" style="2"/>
-    <col min="88" max="88" customWidth="1" width="10.875" style="2"/>
-    <col min="89" max="89" customWidth="1" width="10.875" style="2"/>
-    <col min="90" max="90" customWidth="1" width="10.875" style="2"/>
-    <col min="91" max="91" customWidth="1" width="10.875" style="2"/>
-    <col min="92" max="92" customWidth="1" width="10.875" style="2"/>
-    <col min="93" max="93" customWidth="1" width="10.875" style="2"/>
-    <col min="94" max="94" customWidth="1" width="10.875" style="2"/>
-    <col min="95" max="95" customWidth="1" width="10.875" style="2"/>
-    <col min="96" max="96" customWidth="1" width="10.875" style="2"/>
-    <col min="97" max="97" customWidth="1" width="10.875" style="2"/>
-    <col min="98" max="98" customWidth="1" width="10.875" style="2"/>
-    <col min="99" max="99" customWidth="1" width="10.875" style="2"/>
-    <col min="100" max="100" customWidth="1" width="10.875" style="2"/>
-    <col min="101" max="101" customWidth="1" width="10.875" style="2"/>
-    <col min="102" max="102" customWidth="1" width="10.875" style="2"/>
-    <col min="103" max="103" customWidth="1" width="10.875" style="2"/>
-    <col min="104" max="104" customWidth="1" width="10.875" style="2"/>
-    <col min="105" max="105" customWidth="1" width="10.875" style="2"/>
-    <col min="106" max="106" customWidth="1" width="10.875" style="2"/>
-    <col min="107" max="107" customWidth="1" width="10.875" style="2"/>
-    <col min="108" max="108" customWidth="1" width="10.875" style="2"/>
-    <col min="109" max="109" customWidth="1" width="10.875" style="2"/>
-    <col min="110" max="110" customWidth="1" width="10.875" style="2"/>
-    <col min="111" max="111" customWidth="1" width="10.875" style="2"/>
-    <col min="112" max="112" customWidth="1" width="10.875" style="2"/>
-    <col min="113" max="113" customWidth="1" width="10.875" style="2"/>
-    <col min="114" max="114" customWidth="1" width="10.875" style="2"/>
-    <col min="115" max="115" customWidth="1" width="10.875" style="2"/>
-    <col min="116" max="116" customWidth="1" width="10.875" style="2"/>
-    <col min="117" max="117" customWidth="1" width="10.875" style="2"/>
-    <col min="118" max="118" customWidth="1" width="10.875" style="2"/>
-    <col min="119" max="119" customWidth="1" width="10.875" style="2"/>
-    <col min="120" max="120" customWidth="1" width="10.875" style="2"/>
-    <col min="121" max="121" customWidth="1" width="10.875" style="2"/>
-    <col min="122" max="122" customWidth="1" width="10.875" style="2"/>
-    <col min="123" max="123" customWidth="1" width="10.875" style="2"/>
-    <col min="124" max="124" customWidth="1" width="10.875" style="2"/>
-    <col min="125" max="125" customWidth="1" width="10.875" style="2"/>
-    <col min="126" max="126" customWidth="1" width="10.875" style="2"/>
-    <col min="127" max="127" customWidth="1" width="10.875" style="2"/>
-    <col min="128" max="128" customWidth="1" width="10.875" style="2"/>
-    <col min="129" max="129" customWidth="1" width="10.875" style="2"/>
-    <col min="130" max="130" customWidth="1" width="10.875" style="2"/>
-    <col min="131" max="131" customWidth="1" width="10.875" style="2"/>
-    <col min="132" max="132" customWidth="1" width="10.875" style="2"/>
-    <col min="133" max="133" customWidth="1" width="10.875" style="2"/>
-    <col min="134" max="134" customWidth="1" width="10.875" style="2"/>
-    <col min="135" max="135" customWidth="1" width="10.875" style="2"/>
-    <col min="136" max="136" customWidth="1" width="10.875" style="2"/>
-    <col min="137" max="137" customWidth="1" width="10.875" style="2"/>
-    <col min="138" max="138" customWidth="1" width="10.875" style="2"/>
-    <col min="139" max="139" customWidth="1" width="10.875" style="2"/>
-    <col min="140" max="140" customWidth="1" width="10.875" style="2"/>
-    <col min="141" max="141" customWidth="1" width="10.875" style="2"/>
-    <col min="142" max="142" customWidth="1" width="10.875" style="2"/>
-    <col min="143" max="143" customWidth="1" width="10.875" style="2"/>
-    <col min="144" max="144" customWidth="1" width="10.875" style="2"/>
-    <col min="145" max="145" customWidth="1" width="10.875" style="2"/>
-    <col min="146" max="146" customWidth="1" width="10.875" style="2"/>
-    <col min="147" max="147" customWidth="1" width="10.875" style="2"/>
-    <col min="148" max="148" customWidth="1" width="10.875" style="2"/>
-    <col min="149" max="149" customWidth="1" width="10.875" style="2"/>
-    <col min="150" max="150" customWidth="1" width="10.875" style="2"/>
-    <col min="151" max="151" customWidth="1" width="10.875" style="2"/>
-    <col min="152" max="152" customWidth="1" width="10.875" style="2"/>
-    <col min="153" max="153" customWidth="1" width="10.875" style="2"/>
-    <col min="154" max="154" customWidth="1" width="10.875" style="2"/>
-    <col min="155" max="155" customWidth="1" width="10.875" style="2"/>
-    <col min="156" max="156" customWidth="1" width="10.875" style="2"/>
-    <col min="157" max="157" customWidth="1" width="10.875" style="2"/>
-    <col min="158" max="158" customWidth="1" width="10.875" style="2"/>
-    <col min="159" max="159" customWidth="1" width="10.875" style="2"/>
-    <col min="160" max="160" customWidth="1" width="10.875" style="2"/>
-    <col min="161" max="161" customWidth="1" width="10.875" style="2"/>
-    <col min="162" max="162" customWidth="1" width="10.875" style="2"/>
-    <col min="163" max="163" customWidth="1" width="10.875" style="2"/>
-    <col min="164" max="164" customWidth="1" width="10.875" style="2"/>
-    <col min="165" max="165" customWidth="1" width="10.875" style="2"/>
-    <col min="166" max="166" customWidth="1" width="10.875" style="2"/>
-    <col min="167" max="167" customWidth="1" width="10.875" style="2"/>
-    <col min="168" max="168" customWidth="1" width="10.875" style="2"/>
-    <col min="169" max="169" customWidth="1" width="10.875" style="2"/>
-    <col min="170" max="170" customWidth="1" width="10.875" style="2"/>
-    <col min="171" max="171" customWidth="1" width="10.875" style="2"/>
-    <col min="172" max="172" customWidth="1" width="10.875" style="2"/>
-    <col min="173" max="173" customWidth="1" width="10.875" style="2"/>
-    <col min="174" max="174" customWidth="1" width="10.875" style="2"/>
-    <col min="175" max="175" customWidth="1" width="10.875" style="2"/>
-    <col min="176" max="176" customWidth="1" width="10.875" style="2"/>
-    <col min="177" max="177" customWidth="1" width="10.875" style="2"/>
-    <col min="178" max="178" customWidth="1" width="10.875" style="2"/>
-    <col min="179" max="179" customWidth="1" width="10.875" style="2"/>
-    <col min="180" max="180" customWidth="1" width="10.875" style="2"/>
-    <col min="181" max="181" customWidth="1" width="10.875" style="2"/>
-    <col min="182" max="182" customWidth="1" width="10.875" style="2"/>
-    <col min="183" max="183" customWidth="1" width="10.875" style="2"/>
-    <col min="184" max="184" customWidth="1" width="10.875" style="2"/>
-    <col min="185" max="185" customWidth="1" width="10.875" style="2"/>
-    <col min="186" max="186" customWidth="1" width="10.875" style="2"/>
-    <col min="187" max="187" customWidth="1" width="10.875" style="2"/>
-    <col min="188" max="188" customWidth="1" width="10.875" style="2"/>
-    <col min="189" max="189" customWidth="1" width="10.875" style="2"/>
-    <col min="190" max="190" customWidth="1" width="10.875" style="2"/>
-    <col min="191" max="191" customWidth="1" width="10.875" style="2"/>
-    <col min="192" max="192" customWidth="1" width="10.875" style="2"/>
-    <col min="193" max="193" customWidth="1" width="10.875" style="2"/>
-    <col min="194" max="194" customWidth="1" width="10.875" style="2"/>
-    <col min="195" max="195" customWidth="1" width="10.875" style="2"/>
-    <col min="196" max="196" customWidth="1" width="10.875" style="2"/>
-    <col min="197" max="197" customWidth="1" width="10.875" style="2"/>
-    <col min="198" max="198" customWidth="1" width="10.875" style="2"/>
-    <col min="199" max="199" customWidth="1" width="10.875" style="2"/>
-    <col min="200" max="200" customWidth="1" width="10.875" style="2"/>
-    <col min="201" max="201" customWidth="1" width="10.875" style="2"/>
-    <col min="202" max="202" customWidth="1" width="10.875" style="2"/>
-    <col min="203" max="203" customWidth="1" width="10.875" style="2"/>
-    <col min="204" max="204" customWidth="1" width="10.875" style="2"/>
-    <col min="205" max="205" customWidth="1" width="10.875" style="2"/>
-    <col min="206" max="206" customWidth="1" width="10.875" style="2"/>
-    <col min="207" max="207" customWidth="1" width="10.875" style="2"/>
-    <col min="208" max="208" customWidth="1" width="10.875" style="2"/>
-    <col min="209" max="209" customWidth="1" width="10.875" style="2"/>
-    <col min="210" max="210" customWidth="1" width="10.875" style="2"/>
-    <col min="211" max="211" customWidth="1" width="10.875" style="2"/>
-    <col min="212" max="212" customWidth="1" width="10.875" style="2"/>
-    <col min="213" max="213" customWidth="1" width="10.875" style="2"/>
-    <col min="214" max="214" customWidth="1" width="10.875" style="2"/>
-    <col min="215" max="215" customWidth="1" width="10.875" style="2"/>
-    <col min="216" max="216" customWidth="1" width="10.875" style="2"/>
-    <col min="217" max="217" customWidth="1" width="10.875" style="2"/>
-    <col min="218" max="218" customWidth="1" width="10.875" style="2"/>
-    <col min="219" max="219" customWidth="1" width="10.875" style="2"/>
-    <col min="220" max="220" customWidth="1" width="10.875" style="2"/>
-    <col min="221" max="221" customWidth="1" width="10.875" style="2"/>
-    <col min="222" max="222" customWidth="1" width="10.875" style="2"/>
-    <col min="223" max="223" customWidth="1" width="10.875" style="2"/>
-    <col min="224" max="224" customWidth="1" width="10.875" style="2"/>
-    <col min="225" max="225" customWidth="1" width="10.875" style="2"/>
-    <col min="226" max="226" customWidth="1" width="10.875" style="2"/>
-    <col min="227" max="227" customWidth="1" width="10.875" style="2"/>
-    <col min="228" max="228" customWidth="1" width="10.875" style="2"/>
-    <col min="229" max="229" customWidth="1" width="10.875" style="2"/>
-    <col min="230" max="230" customWidth="1" width="10.875" style="2"/>
-    <col min="231" max="231" customWidth="1" width="10.875" style="2"/>
-    <col min="232" max="232" customWidth="1" width="10.875" style="2"/>
-    <col min="233" max="233" customWidth="1" width="10.875" style="2"/>
-    <col min="234" max="234" customWidth="1" width="10.875" style="2"/>
-    <col min="235" max="235" customWidth="1" width="10.875" style="2"/>
-    <col min="236" max="236" customWidth="1" width="10.875" style="2"/>
-    <col min="237" max="237" customWidth="1" width="10.875" style="2"/>
-    <col min="238" max="238" customWidth="1" width="10.875" style="2"/>
-    <col min="239" max="239" customWidth="1" width="10.875" style="2"/>
-    <col min="240" max="240" customWidth="1" width="10.875" style="2"/>
-    <col min="241" max="241" customWidth="1" width="10.875" style="2"/>
-    <col min="242" max="242" customWidth="1" width="10.875" style="2"/>
-    <col min="243" max="243" customWidth="1" width="10.875" style="2"/>
-    <col min="244" max="244" customWidth="1" width="10.875" style="2"/>
-    <col min="245" max="245" customWidth="1" width="10.875" style="2"/>
-    <col min="246" max="246" customWidth="1" width="10.875" style="2"/>
-    <col min="247" max="247" customWidth="1" width="10.875" style="2"/>
-    <col min="248" max="248" customWidth="1" width="10.875" style="2"/>
-    <col min="249" max="249" customWidth="1" width="10.875" style="2"/>
-    <col min="250" max="250" customWidth="1" width="10.875" style="2"/>
-    <col min="251" max="251" customWidth="1" width="10.875" style="2"/>
-    <col min="252" max="252" customWidth="1" width="10.875" style="2"/>
-    <col min="253" max="253" customWidth="1" width="10.875" style="2"/>
-    <col min="254" max="254" customWidth="1" width="10.875" style="2"/>
-    <col min="255" max="255" customWidth="1" width="10.875" style="2"/>
-    <col min="256" max="256" customWidth="1" width="10.875" style="2"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="96.0" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="8:8" ht="15.75">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="A6" s="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1498,129 +1225,158 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="11.625" style="0"/>
-    <col min="3" max="3" customWidth="1" width="55.875" style="0"/>
-    <col min="4" max="4" customWidth="1" width="33.0" style="0"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="90.0" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="8:8">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8" ht="16.2">
-      <c r="A3" s="12" t="s">
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8" ht="16.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8" ht="16.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="8:8" ht="16.2">
-      <c r="A7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="A11" s="18"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1628,75 +1384,78 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A18">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A56">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="1" width="41.375" style="0"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -14,8 +14,6 @@
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
     <sheet name="iOSObject" sheetId="2" r:id="rId2"/>
-    <sheet name="test" sheetId="3" r:id="rId3"/>
-    <sheet name="test2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!$B$3:$B$4</definedName>
@@ -25,13 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -41,7 +38,6 @@
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -64,9 +60,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>通用控件</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -74,7 +67,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -97,12 +88,6 @@
     <t>Xpath</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>页面名称</t>
-  </si>
-  <si>
     <t>com.ibm.cio.be.ppm:id/et_intranetId</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>登   录</t>
   </si>
   <si>
-    <t>//XCUIElementTypeButton</t>
-  </si>
-  <si>
     <t>Xpath</t>
   </si>
   <si>
@@ -158,46 +140,121 @@
   </si>
   <si>
     <t>我知道了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeCollectionView/XCUIElementTypeCell[1]//XCUIElementTypeImage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>搜索</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="@"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeOther[@name="横幅"]/XCUIElementTypeTextField</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RICHJAY咖啡饮品券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RICH &amp; JAY咖啡饮品券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICHJAY咖啡饮品券</t>
+  </si>
+  <si>
+    <t>悦享分 + 现金：10.0+10.0</t>
+  </si>
+  <si>
+    <t>悦享分+现金</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="..."]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>立即兑换</t>
+  </si>
+  <si>
+    <t>主页面</t>
+  </si>
+  <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>输入手机号</t>
+  </si>
+  <si>
+    <t>确认手机号</t>
+  </si>
+  <si>
+    <t>提交成功</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[1]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[2]/XCUIElementTypeTextField</t>
+  </si>
+  <si>
+    <t>应付总金额</t>
+  </si>
+  <si>
+    <t>提交成功!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="应付总金额（元）"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣减悦享分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="扣减悦享分"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登   录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="兑换数量"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -206,20 +263,17 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0C0C0C"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -236,8 +290,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -251,6 +310,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -274,12 +339,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -376,13 +441,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,12 +498,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -426,13 +528,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,412 +567,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176101</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="2714625"/>
-          <a:ext cx="4292600" cy="5556250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>429954</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>75790</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6108700" y="2727325"/>
-          <a:ext cx="8724900" cy="8594725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>645927</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>252523</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="127000"/>
-          <a:ext cx="7835900" cy="2625725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9321800" cy="9086850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595423</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>63289</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9074150"/>
-          <a:ext cx="5118100" cy="8750300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>126578</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="17916524"/>
-          <a:ext cx="7950200" cy="4133852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="17916524"/>
-          <a:ext cx="9321800" cy="9086852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>633301</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6578600" y="219075"/>
-          <a:ext cx="8864600" cy="9086850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>678490</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>620675</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>12501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr=" "/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6578600" y="9591675"/>
-          <a:ext cx="8851900" cy="9086849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,12 +848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1168,55 +870,55 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1225,34 +927,34 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="86" customWidth="1"/>
+    <col min="3" max="3" width="89.875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1269,193 +971,239 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
+      <c r="A3" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -118,12 +118,6 @@
     <t>kingsan</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>//XCUIElementTypeSecureTextField</t>
   </si>
   <si>
@@ -247,6 +241,14 @@
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="兑换数量"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>安利号码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +939,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -972,13 +974,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -987,10 +989,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -999,48 +1001,48 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
@@ -1049,10 +1051,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -1061,36 +1063,36 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>7</v>
@@ -1099,24 +1101,24 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>7</v>
@@ -1125,10 +1127,10 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1137,10 +1139,10 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -1149,34 +1151,34 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
@@ -1185,10 +1187,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -145,9 +145,6 @@
     <t>搜索</t>
   </si>
   <si>
-    <t>//XCUIElementTypeStaticText[@name="@"]</t>
-  </si>
-  <si>
     <t>输入框</t>
   </si>
   <si>
@@ -249,6 +246,150 @@
   </si>
   <si>
     <t>密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后中式炒锅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后中式炒锅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="皇后中式炒锅"])[2]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeLink[contains(@label, '购物车') and contains(@label, 'a')]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@label, '当前购货人')]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前购货人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="商品总数（件）"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="小计（元）:"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销赠品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@label, '附件')]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="周一至周日"]/../XCUIElementTypeOther</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认配送方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="购货总额 :"]/../..//XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购货总额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值税专用发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全部发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择发票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="网页对话框"]/XCUIElementTypeOther[2]/XCUIElementTypeOther[1]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送方式</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -319,6 +460,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -346,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -474,13 +621,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +668,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -528,6 +699,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,12 +1027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -872,7 +1049,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -886,7 +1063,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -898,7 +1075,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -912,7 +1089,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -936,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,12 +1128,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -973,11 +1150,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>53</v>
+      <c r="A3" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
@@ -987,9 +1164,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -999,20 +1176,20 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>38</v>
+      <c r="A6" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1025,7 +1202,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1037,172 +1214,398 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="31"/>
       <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A14:A20"/>
+  <mergeCells count="6">
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A15:A21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
   <si>
     <r>
       <rPr>
@@ -390,6 +390,80 @@
   </si>
   <si>
     <t>配送方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>poc003支付选择</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认付款</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeOther[@name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>"]/XCUIElementTypeOther[3]/XCUIElementTypeOther</t>
+    </r>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恭喜您成功兑换安利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>"]/../XCUIElementTypeStaticText</t>
+    </r>
+  </si>
+  <si>
+    <t>兑换成功信息</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,8 +754,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1027,12 +1110,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1049,7 +1132,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1063,7 +1146,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1158,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1089,7 +1172,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1113,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1128,12 +1211,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1150,7 +1233,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1164,7 +1247,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
@@ -1176,7 +1259,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1271,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1202,7 +1285,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1297,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1309,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1321,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="6" t="s">
         <v>69</v>
       </c>
@@ -1250,7 +1333,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1345,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1276,7 +1359,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
@@ -1288,7 +1371,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
@@ -1300,7 +1383,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1314,7 +1397,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1409,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1421,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1433,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
@@ -1362,7 +1445,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1457,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
@@ -1400,7 +1483,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1414,7 +1497,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="11" t="s">
         <v>61</v>
       </c>
@@ -1426,7 +1509,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="11" t="s">
         <v>59</v>
       </c>
@@ -1438,7 +1521,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="11" t="s">
         <v>67</v>
       </c>
@@ -1450,7 +1533,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
@@ -1462,7 +1545,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="11" t="s">
         <v>72</v>
       </c>
@@ -1474,7 +1557,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="11" t="s">
         <v>75</v>
       </c>
@@ -1486,7 +1569,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="11" t="s">
         <v>76</v>
       </c>
@@ -1498,7 +1581,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="14" t="s">
         <v>78</v>
       </c>
@@ -1510,8 +1593,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -1521,8 +1604,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1532,7 +1616,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
       <c r="B34" s="11" t="s">
         <v>82</v>
       </c>
@@ -1543,7 +1628,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
       <c r="B35" s="11" t="s">
         <v>86</v>
       </c>
@@ -1554,7 +1640,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
       <c r="B36" s="11" t="s">
         <v>87</v>
       </c>
@@ -1565,7 +1652,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
       <c r="B37" s="11" t="s">
         <v>84</v>
       </c>
@@ -1576,7 +1664,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
       <c r="B38" s="11" t="s">
         <v>88</v>
       </c>
@@ -1587,7 +1676,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
       <c r="B39" s="11" t="s">
         <v>91</v>
       </c>
@@ -1596,6 +1686,72 @@
       </c>
       <c r="D39" s="6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\Implement\PageObject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
     <sheet name="iOSObject" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!$B$3:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AndroidObject!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -88,36 +88,6 @@
     <t>Xpath</t>
   </si>
   <si>
-    <t>com.ibm.cio.be.ppm:id/et_intranetId</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>com.ibm.cio.be.ppm:id/et_password</t>
-  </si>
-  <si>
-    <t>year1</t>
-  </si>
-  <si>
-    <t>com.kingsoft:id/btn_num8</t>
-  </si>
-  <si>
-    <t>year2</t>
-  </si>
-  <si>
-    <t>com.kingsoft:id/btn_num9</t>
-  </si>
-  <si>
-    <t>kingsan</t>
-  </si>
-  <si>
     <t>//XCUIElementTypeSecureTextField</t>
   </si>
   <si>
@@ -175,9 +145,6 @@
     <t>立即兑换</t>
   </si>
   <si>
-    <t>主页面</t>
-  </si>
-  <si>
     <t>兑换</t>
   </si>
   <si>
@@ -206,207 +173,207 @@
   </si>
   <si>
     <t>提交成功!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="应付总金额（元）"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>扣减悦享分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="扣减悦享分"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>兑换数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>登录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>登   录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="兑换数量"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>安利号码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>加入购物车</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>去结算</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>购物车</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>前往购物车</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>去结算</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皇后中式炒锅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>@</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>皇后中式炒锅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>(//XCUIElementTypeStaticText[@name="皇后中式炒锅"])[2]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>购物数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeLink[contains(@label, '购物车') and contains(@label, 'a')]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>搜索结果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[contains(@label, '当前购货人')]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>当前购货人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>商品总数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="商品总数（件）"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="小计（元）:"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>总金额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>促销赠品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[contains(@label, '附件')]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>活动信息确认</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>确定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="周一至周日"]/../XCUIElementTypeOther</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认配送方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>需要发票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[@name="购货总额 :"]/../..//XCUIElementTypeStaticText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>购货总额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>增值税专用发票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发票类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>查看全部发票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>选择发票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>确定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>//XCUIElementTypeOther[@name="网页对话框"]/XCUIElementTypeOther[2]/XCUIElementTypeOther[1]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发票确认</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配送方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>支付宝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>poc003支付选择</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>立即支付</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>确认付款</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -431,15 +398,15 @@
   </si>
   <si>
     <t>密码输入框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成支付</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -464,7 +431,264 @@
   </si>
   <si>
     <t>兑换成功信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索公众号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号链接</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/l7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上工作室</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号主页面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView/android.widget.TextView[@text='hybris']</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>安利云购链接</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessibilityId</t>
+  </si>
+  <si>
+    <t>accessibilityId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>安利云购主页面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人护理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>js-site-search-input</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>qty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购物车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前购货人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:"]/../android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线上工作室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿沐浴露</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总数</t>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc=""]</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品总数（件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -491,13 +715,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -540,6 +757,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -710,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,51 +943,69 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -775,43 +1015,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,28 +1334,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
     <col min="5" max="256" width="10.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1132,65 +1372,235 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+      <c r="B5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1198,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1211,12 +1621,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1233,524 +1643,524 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D33" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="6" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="11" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="11" t="s">
+      <c r="C45" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1763,7 +2173,7 @@
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\Implement\PageObject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>poc003支付选择</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立即支付</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -688,6 +684,22 @@
   </si>
   <si>
     <t>去结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>去支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已成功支付。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,6 +1016,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1350,12 +1365,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1372,26 +1387,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1399,10 +1414,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1410,89 +1425,89 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="C9" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -1500,13 +1515,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1515,38 +1530,38 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -1554,21 +1569,21 @@
         <v>60</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -1576,21 +1591,21 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1606,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1621,12 +1636,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1643,7 +1658,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1657,7 +1672,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1669,7 +1684,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1681,8 +1696,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>108</v>
+      <c r="A6" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1695,7 +1710,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1722,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1734,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1746,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
@@ -1743,7 +1758,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1755,7 +1770,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1769,7 +1784,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1796,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1793,7 +1808,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1807,7 +1822,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1819,7 +1834,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +1846,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1843,7 +1858,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1855,7 +1870,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1867,7 +1882,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1908,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1907,7 +1922,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -1919,7 +1934,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +1946,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
@@ -1943,7 +1958,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
@@ -1955,7 +1970,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="9" t="s">
         <v>61</v>
       </c>
@@ -1967,7 +1982,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="9" t="s">
         <v>64</v>
       </c>
@@ -1979,7 +1994,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="9" t="s">
         <v>65</v>
       </c>
@@ -1991,7 +2006,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
@@ -2087,7 +2102,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="9" t="s">
         <v>80</v>
       </c>
@@ -2099,69 +2114,100 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="B41" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
       <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="4" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\git\automation\Desktop\appium\backup\PractitionerPortal_automation\appiumtest\Implement\PageObject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,12 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="157">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -38,6 +39,7 @@
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -67,6 +69,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Read Me: 
 1,If want to add extra column, please add next to "Attribute"</t>
@@ -76,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF0C0C0C"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 2,If there is no necessary , please do not  modify the column‘s sequence, otherwise change the column index accordingly
@@ -388,6 +392,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>"]/XCUIElementTypeOther[3]/XCUIElementTypeOther</t>
     </r>
@@ -421,6 +426,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>"]/../XCUIElementTypeStaticText</t>
     </r>
@@ -439,14 +445,6 @@
   </si>
   <si>
     <t>输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号链接</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/l7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -465,18 +463,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>线上工作室</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>公众号主页面</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.ListView/android.widget.TextView[@text='hybris']</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>安利云购链接</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -485,21 +475,9 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>我知道了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>accessibilityId</t>
   </si>
   <si>
-    <t>accessibilityId</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>安利云购主页面</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -508,39 +486,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>@</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>js-site-search-input</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>商品输入框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>qty</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往购物车</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -562,14 +520,93 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>")]</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[@content-desc="</t>
-    </r>
+    <t>婴儿沐浴露</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总数</t>
+  </si>
+  <si>
+    <t>去支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号链接</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/l7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上工作室</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ListView/android.widget.TextView[@text='hybris']</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人护理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="@"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -578,7 +615,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当前购货人</t>
+      <t>婴儿沐浴露</t>
     </r>
     <r>
       <rPr>
@@ -587,17 +624,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>:"]/../android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@text='</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -607,7 +634,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>线上工作室</t>
+      <t>婴儿沐浴露</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量添加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="a"]/preceding-sibling::android.widget.Button[1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Xpa</t>
     </r>
     <r>
       <rPr>
@@ -616,23 +657,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>']</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿沐浴露</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品总数</t>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@content-desc=""]</t>
+      <t>th</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前购货人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -646,7 +677,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商品总数（件）</t>
+      <t>当前购货人</t>
     </r>
     <r>
       <rPr>
@@ -655,13 +686,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"]/../android.view.View</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc, "</t>
+      <t>:"]/following-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
     </r>
     <r>
       <rPr>
@@ -671,27 +702,190 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>小计</t>
+      <t>商品总数</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/preceding-sibling::android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>")]</t>
     </r>
-  </si>
-  <si>
-    <t>去结算</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>去支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.Button[@content-desc="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]/../preceding-sibling::android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交成功</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,"提交成功")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应付总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]/..//android.view.View</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信支付</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//android.widget.CheckedTextView)[2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.RelativeLayout[@resource-id='com.tencent.mm:id/cj0']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id=' com.tencent.mm:id/cix']</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成支付</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.tencent.mm:id/dr3']</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -699,7 +893,73 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>您已成功支付。</t>
+    <r>
+      <t>//android.view.View[contains(@content-desc,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您已成功支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>")]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付未完成信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@content-desc="搜索"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线上工作室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -716,33 +976,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0C0C0C"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -772,6 +1038,11 @@
     <font>
       <sz val="9"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -944,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1290,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,28 +1623,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
     <col min="5" max="256" width="10.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1387,26 +1661,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>153</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1414,10 +1688,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1425,103 +1699,101 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" s="18" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1530,82 +1802,229 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>120</v>
+      <c r="A15" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>105</v>
+      <c r="C24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +2043,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,12 +2055,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1658,7 +2077,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1672,7 +2091,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +2103,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1696,8 +2115,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>107</v>
+      <c r="A6" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1710,7 +2129,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +2141,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1734,7 +2153,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +2165,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
@@ -1758,7 +2177,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +2189,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1784,7 +2203,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +2215,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +2227,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1822,7 +2241,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +2253,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +2265,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +2277,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +2289,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +2301,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1908,7 +2327,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1922,7 +2341,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +2353,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
@@ -1946,7 +2365,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
@@ -1958,7 +2377,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
@@ -1970,7 +2389,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="9" t="s">
         <v>61</v>
       </c>
@@ -1982,7 +2401,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="9" t="s">
         <v>64</v>
       </c>
@@ -1994,7 +2413,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="9" t="s">
         <v>65</v>
       </c>
@@ -2006,7 +2425,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
@@ -2116,10 +2535,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
@@ -2127,7 +2546,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>83</v>
@@ -2201,13 +2620,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>15</v>
+        <v>156</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <r>
       <rPr>
@@ -877,15 +877,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.Button[@resource-id=' com.tencent.mm:id/cix']</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>完成支付</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Button[@resource-id='com.tencent.mm:id/dr3']</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -960,6 +952,18 @@
   </si>
   <si>
     <t>//XCUIElementTypeStaticText[contains(@name,"您已成功支付")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/cix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/dr3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1625,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1668,7 +1672,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>95</v>
@@ -1680,7 +1684,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1705,7 +1709,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>115</v>
@@ -1987,30 +1991,30 @@
       <c r="B29" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>125</v>
+      <c r="C29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>95</v>
+        <v>146</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>95</v>
@@ -2018,10 +2022,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>125</v>
@@ -2042,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -2623,7 +2627,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -885,8 +885,24 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[contains(@content-desc,"</t>
+    <t>支付未完成信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@content-desc="搜索"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:id/hx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
     </r>
     <r>
       <rPr>
@@ -896,7 +912,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>您已成功支付</t>
+      <t>线上工作室</t>
     </r>
     <r>
       <rPr>
@@ -905,47 +921,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>")]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付未完成信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.Image[@content-desc="clock"]/following-sibling::android.view.View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@content-desc="搜索"]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm:id/hx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//android.widget.TextView[@text='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线上工作室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>']</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -965,6 +940,9 @@
   <si>
     <t>com.tencent.mm:id/dr3</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1608,7 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1650,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>95</v>
@@ -1684,7 +1662,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1709,7 +1687,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>115</v>
@@ -1846,7 +1824,7 @@
       <c r="B17" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -1992,10 +1970,10 @@
         <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,18 +1981,18 @@
         <v>146</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>148</v>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>95</v>
@@ -2022,10 +2000,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>125</v>
@@ -2627,7 +2605,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>

--- a/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
+++ b/Desktop/appium/backup/PractitionerPortal_automation/appiumtest/Implement/PageObject/Object.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AndroidObject" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>//XCUIElementTypeStaticText[contains(@label, '当前购货人')]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>当前购货人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -943,6 +939,10 @@
   </si>
   <si>
     <t>//android.widget.Image[@content-desc="tick-coin"]/following-sibling::android.view.View</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[contains(@name,"购货卡号")]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1607,7 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1644,25 +1644,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1681,75 +1681,75 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="C9" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -1758,24 +1758,24 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1784,13 +1784,13 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,10 +1801,10 @@
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,51 +1813,51 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>48</v>
@@ -1866,147 +1866,147 @@
         <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -2361,10 +2361,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -2373,10 +2373,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -2385,10 +2385,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
@@ -2397,10 +2397,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -2409,10 +2409,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>15</v>
@@ -2421,10 +2421,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>15</v>
@@ -2433,10 +2433,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -2445,10 +2445,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>15</v>
@@ -2457,10 +2457,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>15</v>
@@ -2469,10 +2469,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>15</v>
@@ -2481,10 +2481,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -2493,10 +2493,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -2505,10 +2505,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
@@ -2517,10 +2517,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>15</v>
@@ -2528,13 +2528,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>15</v>
@@ -2543,10 +2543,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>15</v>
@@ -2555,10 +2555,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>15</v>
@@ -2567,10 +2567,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -2579,10 +2579,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>15</v>
@@ -2591,10 +2591,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
